--- a/xlsx/Opel_intext.xlsx
+++ b/xlsx/Opel_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>Opel</t>
   </si>
@@ -29,13 +29,13 @@
     <t>子公司</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Opel</t>
+    <t>政策_政策_混合动力车辆_Opel</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%95%E5%A1%9E%E5%B0%94%E6%96%AF%E6%B5%B7%E5%A7%86</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E2%82%AC</t>
@@ -83,15 +83,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%B3%80</t>
   </si>
   <si>
-    <t>佛賀</t>
+    <t>佛贺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%95%E5%A1%9E%E5%B0%94%E6%B5%B7%E5%A7%86</t>
   </si>
   <si>
@@ -101,7 +98,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>工廠</t>
+    <t>工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -119,13 +116,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%90%88%E5%99%A8</t>
   </si>
   <si>
-    <t>離合器</t>
+    <t>离合器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -137,25 +134,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%B3%E8%B8%8F%E8%BB%8A</t>
   </si>
   <si>
-    <t>腳踏車</t>
+    <t>脚踏车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9</t>
   </si>
   <si>
-    <t>納粹</t>
+    <t>纳粹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC</t>
   </si>
   <si>
-    <t>鋼</t>
+    <t>钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%98%BB</t>
   </si>
   <si>
-    <t>風阻</t>
+    <t>风阻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -203,25 +200,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%B3%80%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>佛賀汽車</t>
+    <t>佛贺汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%B7%B4%E9%BB%8E%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>法國巴黎銀行</t>
+    <t>法国巴黎银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E8%98%AD%E4%BC%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>雪佛蘭伏特</t>
+    <t>雪佛兰伏特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>國產汽車</t>
+    <t>国产汽车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Automotive_industry_in_Germany</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>德國經濟</t>
+    <t>德国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E4%BA%A4%E9%80%9A</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/NSU%E8%BB%8A%E5%BB%A0</t>
   </si>
   <si>
-    <t>NSU車廠</t>
+    <t>NSU车厂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wanderer_(car)</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F_(%E8%BD%8E%E8%BB%8A)</t>
   </si>
   <si>
-    <t>衛星 (轎車)</t>
+    <t>卫星 (轿车)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hansa_(car)</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%89%B9%E6%8B%89%E5%85%8B%E5%82%B3%E5%8B%95%E7%B3%BB%E7%B5%B1%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>格特拉克傳動系統有限公司</t>
+    <t>格特拉克传动系统有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%8B%89</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>卡爾森</t>
+    <t>卡尔森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/G-Power</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%AD%E5%85%8B%E6%96%AF%E7%89%B9%E7%A7%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>席克斯特租車</t>
+    <t>席克斯特租车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%BE%B7%E6%B1%BD%E8%BD%A6%E4%BF%B1%E4%B9%90%E9%83%A8</t>
@@ -761,19 +758,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%88%BF%E8%BB%8A%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>德國房車大師賽</t>
+    <t>德国房车大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>法蘭克福車展</t>
+    <t>法兰克福车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%B1%BD%E8%BB%8A%E5%B7%A5%E6%A5%AD%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國汽車工業協會</t>
+    <t>德国汽车工业协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%8D%9A%E6%A0%BC%E6%9E%97%E8%B5%9B%E9%81%93</t>
@@ -785,13 +782,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1525,7 +1522,7 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
         <v>7</v>
@@ -1551,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1580,10 +1577,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1638,10 +1635,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
         <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1667,10 +1664,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
         <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
       </c>
       <c r="G18" t="n">
         <v>12</v>
@@ -1696,10 +1693,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1725,10 +1722,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1754,10 +1751,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1783,10 +1780,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
@@ -1812,10 +1809,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -1841,10 +1838,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1870,10 +1867,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1899,10 +1896,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1928,10 +1925,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1957,10 +1954,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1986,10 +1983,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2015,10 +2012,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2044,10 +2041,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -2073,10 +2070,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2131,10 +2128,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2160,10 +2157,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2189,10 +2186,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2247,10 +2244,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
         <v>67</v>
-      </c>
-      <c r="F38" t="s">
-        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -2276,10 +2273,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
         <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2305,10 +2302,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
         <v>71</v>
-      </c>
-      <c r="F40" t="s">
-        <v>72</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2334,10 +2331,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
         <v>73</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2363,10 +2360,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
         <v>75</v>
-      </c>
-      <c r="F42" t="s">
-        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2392,10 +2389,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
         <v>77</v>
-      </c>
-      <c r="F43" t="s">
-        <v>78</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2421,10 +2418,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
         <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2450,10 +2447,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
         <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2479,10 +2476,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
         <v>83</v>
-      </c>
-      <c r="F46" t="s">
-        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2508,10 +2505,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2537,10 +2534,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s">
         <v>87</v>
-      </c>
-      <c r="F48" t="s">
-        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2566,10 +2563,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
         <v>89</v>
-      </c>
-      <c r="F49" t="s">
-        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2595,10 +2592,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
         <v>91</v>
-      </c>
-      <c r="F50" t="s">
-        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2624,10 +2621,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
         <v>93</v>
-      </c>
-      <c r="F51" t="s">
-        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2653,10 +2650,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
-      </c>
-      <c r="F52" t="s">
-        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2682,10 +2679,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
         <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2711,10 +2708,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
         <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2740,10 +2737,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
         <v>101</v>
-      </c>
-      <c r="F55" t="s">
-        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2769,10 +2766,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
         <v>103</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2798,10 +2795,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
-      </c>
-      <c r="F57" t="s">
-        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2827,10 +2824,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
         <v>107</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2856,10 +2853,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
         <v>109</v>
-      </c>
-      <c r="F59" t="s">
-        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2885,10 +2882,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
         <v>111</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2914,10 +2911,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
         <v>113</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2943,10 +2940,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2972,10 +2969,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="F63" t="s">
-        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3001,10 +2998,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
         <v>119</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3030,10 +3027,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
         <v>121</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3059,10 +3056,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>123</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3088,10 +3085,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3117,10 +3114,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" t="s">
         <v>77</v>
-      </c>
-      <c r="F68" t="s">
-        <v>78</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3146,10 +3143,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
         <v>127</v>
-      </c>
-      <c r="F69" t="s">
-        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3175,10 +3172,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
         <v>129</v>
-      </c>
-      <c r="F70" t="s">
-        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3204,10 +3201,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
         <v>131</v>
-      </c>
-      <c r="F71" t="s">
-        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3233,10 +3230,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
         <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3262,10 +3259,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" t="s">
         <v>135</v>
-      </c>
-      <c r="F73" t="s">
-        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3291,10 +3288,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>137</v>
-      </c>
-      <c r="F74" t="s">
-        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3320,10 +3317,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" t="s">
         <v>139</v>
-      </c>
-      <c r="F75" t="s">
-        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3349,10 +3346,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s">
         <v>141</v>
-      </c>
-      <c r="F76" t="s">
-        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3378,10 +3375,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
         <v>143</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3407,10 +3404,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3436,10 +3433,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
         <v>147</v>
-      </c>
-      <c r="F79" t="s">
-        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3465,10 +3462,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
         <v>149</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3494,10 +3491,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3523,10 +3520,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
         <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3552,10 +3549,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" t="s">
         <v>155</v>
-      </c>
-      <c r="F83" t="s">
-        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3581,10 +3578,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" t="s">
         <v>157</v>
-      </c>
-      <c r="F84" t="s">
-        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3610,10 +3607,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F85" t="s">
         <v>159</v>
-      </c>
-      <c r="F85" t="s">
-        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3639,10 +3636,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>160</v>
+      </c>
+      <c r="F86" t="s">
         <v>161</v>
-      </c>
-      <c r="F86" t="s">
-        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3668,10 +3665,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
         <v>163</v>
-      </c>
-      <c r="F87" t="s">
-        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3697,10 +3694,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
         <v>165</v>
-      </c>
-      <c r="F88" t="s">
-        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3726,10 +3723,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" t="s">
         <v>167</v>
-      </c>
-      <c r="F89" t="s">
-        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3755,10 +3752,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" t="s">
         <v>169</v>
-      </c>
-      <c r="F90" t="s">
-        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3784,10 +3781,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
         <v>171</v>
-      </c>
-      <c r="F91" t="s">
-        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3813,10 +3810,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" t="s">
         <v>173</v>
-      </c>
-      <c r="F92" t="s">
-        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3842,10 +3839,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" t="s">
         <v>175</v>
-      </c>
-      <c r="F93" t="s">
-        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3871,10 +3868,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" t="s">
         <v>177</v>
-      </c>
-      <c r="F94" t="s">
-        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3900,10 +3897,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" t="s">
         <v>179</v>
-      </c>
-      <c r="F95" t="s">
-        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -3929,10 +3926,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" t="s">
         <v>181</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3958,10 +3955,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" t="s">
         <v>183</v>
-      </c>
-      <c r="F97" t="s">
-        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3987,10 +3984,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" t="s">
         <v>185</v>
-      </c>
-      <c r="F98" t="s">
-        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4016,10 +4013,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" t="s">
         <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4045,10 +4042,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4074,10 +4071,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4103,10 +4100,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4132,10 +4129,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4161,10 +4158,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4190,10 +4187,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4219,10 +4216,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4248,10 +4245,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4277,10 +4274,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4306,10 +4303,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4335,10 +4332,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4364,10 +4361,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4393,10 +4390,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4422,10 +4419,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4451,10 +4448,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4480,10 +4477,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4509,10 +4506,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4538,10 +4535,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4567,10 +4564,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4596,10 +4593,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4625,10 +4622,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4654,10 +4651,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -4683,10 +4680,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4712,10 +4709,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4741,10 +4738,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4770,10 +4767,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4799,10 +4796,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4828,10 +4825,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4857,10 +4854,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4886,10 +4883,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4915,10 +4912,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4944,10 +4941,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4973,10 +4970,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5002,10 +4999,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5031,10 +5028,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5060,10 +5057,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5089,10 +5086,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -5118,10 +5115,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
